--- a/biology/Botanique/Ludwigia_repens/Ludwigia_repens.xlsx
+++ b/biology/Botanique/Ludwigia_repens/Ludwigia_repens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwigie rampante, Jussie rampante
 Ludwigia repens, la Ludwigie rampante ou la Jussie rampante, est une espèce de plantes de la famille des Onagraceae.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ludwigia repens a été décrite pour la première fois en 1771 par le naturaliste allemand Johann Reinhold Forster (1729-1798)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ludwigia repens a été décrite pour la première fois en 1771 par le naturaliste allemand Johann Reinhold Forster (1729-1798),.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (29 juillet 2022)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (29 juillet 2022) (Attention liste brute contenant possiblement des synonymes) :
 variété Ludwigia repens var. rotundata (Griseb.) M. Gómez
 variété Ludwigia repens var. stipitata (Fernald &amp; Griscom) Munz</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en + la) John Reinhold Forster, Flora Americæ Septentrionalis : Or a Catalogue of the Plants of North America, Londres, 1771, 65 p. (lire en ligne), p. 6.</t>
         </is>
